--- a/machines/TRANSPORT.xlsx
+++ b/machines/TRANSPORT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aouad\Desktop\sirius-data\machines\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayoub\OneDrive\Bureau\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFAC24CF-2769-41C3-BCF3-6A40F670F347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7593604-074D-43DC-8610-F54E36D0D97B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{3D8B7A8D-F88C-4C8F-B979-1CC204B055EF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3D8B7A8D-F88C-4C8F-B979-1CC204B055EF}"/>
   </bookViews>
   <sheets>
     <sheet name="555555565" sheetId="1" r:id="rId1"/>
@@ -798,9 +798,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -838,7 +838,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -944,7 +944,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1086,7 +1086,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1096,22 +1096,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC97E5A1-4A54-41C3-A983-85E1F9A2C9E7}">
   <dimension ref="A1:H126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B33" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59:F67"/>
+    <sheetView tabSelected="1" topLeftCell="B102" workbookViewId="0">
+      <selection activeCell="H124" sqref="H124:H126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.36328125" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="25.90625" customWidth="1"/>
-    <col min="4" max="4" width="33.08984375" customWidth="1"/>
-    <col min="5" max="5" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.90625" customWidth="1"/>
+    <col min="3" max="3" width="25.88671875" customWidth="1"/>
+    <col min="4" max="4" width="33.109375" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.88671875" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
@@ -1177,7 +1177,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>13</v>
@@ -1193,7 +1193,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
@@ -1207,7 +1207,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" t="s">
@@ -1221,7 +1221,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>15</v>
@@ -1237,7 +1237,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" t="s">
@@ -1251,7 +1251,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" t="s">
@@ -1265,7 +1265,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>19</v>
@@ -1281,7 +1281,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
@@ -1295,7 +1295,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>22</v>
@@ -1311,7 +1311,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
@@ -1325,7 +1325,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" t="s">
         <v>25</v>
@@ -1341,7 +1341,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" t="s">
@@ -1381,7 +1381,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>13</v>
@@ -1397,7 +1397,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" t="s">
@@ -1411,7 +1411,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" t="s">
@@ -1425,7 +1425,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>15</v>
@@ -1441,7 +1441,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" t="s">
@@ -1455,7 +1455,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" t="s">
@@ -1469,7 +1469,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>19</v>
@@ -1485,7 +1485,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" t="s">
@@ -1499,7 +1499,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
         <v>22</v>
@@ -1515,7 +1515,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" t="s">
@@ -1529,7 +1529,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" t="s">
         <v>25</v>
@@ -1545,7 +1545,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" t="s">
@@ -1585,7 +1585,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
         <v>13</v>
@@ -1601,7 +1601,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" t="s">
@@ -1615,7 +1615,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" t="s">
@@ -1629,7 +1629,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
         <v>15</v>
@@ -1645,7 +1645,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" t="s">
@@ -1659,7 +1659,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" t="s">
@@ -1673,7 +1673,7 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
         <v>19</v>
@@ -1689,7 +1689,7 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" t="s">
@@ -1703,7 +1703,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
         <v>22</v>
@@ -1719,7 +1719,7 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" t="s">
@@ -1733,7 +1733,7 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" t="s">
         <v>25</v>
@@ -1749,7 +1749,7 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>33</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>36</v>
@@ -1775,7 +1775,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" t="s">
@@ -1789,7 +1789,7 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
         <v>13</v>
@@ -1805,7 +1805,7 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" t="s">
@@ -1819,7 +1819,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" t="s">
@@ -1833,7 +1833,7 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
         <v>19</v>
@@ -1849,7 +1849,7 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" t="s">
@@ -1863,7 +1863,7 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
         <v>37</v>
@@ -1879,7 +1879,7 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" t="s">
@@ -1893,7 +1893,7 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>38</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" t="s">
@@ -1933,7 +1933,7 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
         <v>13</v>
@@ -1949,7 +1949,7 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" t="s">
@@ -1963,7 +1963,7 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" t="s">
@@ -1977,7 +1977,7 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
         <v>19</v>
@@ -1993,7 +1993,7 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" t="s">
@@ -2007,7 +2007,7 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
         <v>37</v>
@@ -2023,7 +2023,7 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" t="s">
@@ -2037,7 +2037,7 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>40</v>
       </c>
@@ -2054,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>36</v>
@@ -2063,7 +2063,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" t="s">
@@ -2077,7 +2077,7 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
         <v>13</v>
@@ -2093,7 +2093,7 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" t="s">
@@ -2107,7 +2107,7 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" t="s">
@@ -2121,7 +2121,7 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
         <v>19</v>
@@ -2137,7 +2137,7 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" t="s">
@@ -2151,7 +2151,7 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
         <v>37</v>
@@ -2167,7 +2167,7 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" t="s">
@@ -2181,7 +2181,7 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>42</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" t="s">
@@ -2221,7 +2221,7 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
     </row>
-    <row r="70" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
         <v>13</v>
@@ -2237,7 +2237,7 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" t="s">
@@ -2251,7 +2251,7 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
     </row>
-    <row r="72" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" t="s">
@@ -2265,7 +2265,7 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
     </row>
-    <row r="73" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1" t="s">
         <v>19</v>
@@ -2281,7 +2281,7 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
     </row>
-    <row r="74" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" t="s">
@@ -2295,7 +2295,7 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
     </row>
-    <row r="75" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1" t="s">
         <v>22</v>
@@ -2311,7 +2311,7 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
     </row>
-    <row r="76" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" t="s">
@@ -2325,7 +2325,7 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
     </row>
-    <row r="77" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" t="s">
         <v>25</v>
@@ -2341,7 +2341,7 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>45</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" t="s">
@@ -2381,7 +2381,7 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
     </row>
-    <row r="80" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1" t="s">
         <v>13</v>
@@ -2397,7 +2397,7 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
     </row>
-    <row r="81" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" t="s">
@@ -2411,7 +2411,7 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
     </row>
-    <row r="82" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" t="s">
@@ -2425,7 +2425,7 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
     </row>
-    <row r="83" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1" t="s">
         <v>19</v>
@@ -2441,7 +2441,7 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
     </row>
-    <row r="84" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" t="s">
@@ -2455,7 +2455,7 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
     </row>
-    <row r="85" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1" t="s">
         <v>22</v>
@@ -2471,7 +2471,7 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
     </row>
-    <row r="86" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" t="s">
@@ -2485,7 +2485,7 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
     </row>
-    <row r="87" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" t="s">
         <v>25</v>
@@ -2501,7 +2501,7 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>47</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" t="s">
@@ -2541,7 +2541,7 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
     </row>
-    <row r="90" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1" t="s">
         <v>13</v>
@@ -2557,7 +2557,7 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
     </row>
-    <row r="91" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" t="s">
@@ -2571,7 +2571,7 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
     </row>
-    <row r="92" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" t="s">
@@ -2585,7 +2585,7 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
     </row>
-    <row r="93" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1" t="s">
         <v>19</v>
@@ -2601,7 +2601,7 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
     </row>
-    <row r="94" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" t="s">
@@ -2615,7 +2615,7 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
     </row>
-    <row r="95" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1" t="s">
         <v>22</v>
@@ -2631,7 +2631,7 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
     </row>
-    <row r="96" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" t="s">
@@ -2645,7 +2645,7 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
     </row>
-    <row r="97" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" t="s">
         <v>25</v>
@@ -2661,7 +2661,7 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>49</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" t="s">
@@ -2701,7 +2701,7 @@
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
     </row>
-    <row r="100" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="1" t="s">
         <v>13</v>
@@ -2717,7 +2717,7 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
     </row>
-    <row r="101" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" t="s">
@@ -2731,7 +2731,7 @@
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
     </row>
-    <row r="102" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" t="s">
@@ -2745,7 +2745,7 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
     </row>
-    <row r="103" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="1" t="s">
         <v>19</v>
@@ -2761,7 +2761,7 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
     </row>
-    <row r="104" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" t="s">
@@ -2775,7 +2775,7 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
     </row>
-    <row r="105" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="1" t="s">
         <v>22</v>
@@ -2791,7 +2791,7 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
     </row>
-    <row r="106" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" t="s">
@@ -2805,7 +2805,7 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
     </row>
-    <row r="107" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" t="s">
         <v>25</v>
@@ -2821,7 +2821,7 @@
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>52</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" t="s">
@@ -2861,7 +2861,7 @@
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
     </row>
-    <row r="110" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="1" t="s">
         <v>55</v>
@@ -2877,7 +2877,7 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
     </row>
-    <row r="111" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" t="s">
@@ -2891,7 +2891,7 @@
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
     </row>
-    <row r="112" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" t="s">
@@ -2905,7 +2905,7 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
     </row>
-    <row r="113" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="1" t="s">
         <v>37</v>
@@ -2921,7 +2921,7 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
     </row>
-    <row r="114" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" t="s">
@@ -2935,7 +2935,7 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>58</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" t="s">
@@ -2975,7 +2975,7 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
     </row>
-    <row r="117" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
       <c r="B117" s="1" t="s">
         <v>13</v>
@@ -2991,7 +2991,7 @@
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
     </row>
-    <row r="118" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" t="s">
@@ -3005,7 +3005,7 @@
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
     </row>
-    <row r="119" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" t="s">
@@ -3019,7 +3019,7 @@
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
     </row>
-    <row r="120" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="1" t="s">
         <v>19</v>
@@ -3035,7 +3035,7 @@
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
     </row>
-    <row r="121" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" t="s">
@@ -3049,7 +3049,7 @@
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
     </row>
-    <row r="122" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
       <c r="B122" s="1" t="s">
         <v>37</v>
@@ -3065,7 +3065,7 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
     </row>
-    <row r="123" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" t="s">
@@ -3079,7 +3079,7 @@
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>61</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="B125" t="s">
         <v>55</v>
@@ -3121,7 +3121,7 @@
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
     </row>
-    <row r="126" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
       <c r="B126" t="s">
         <v>67</v>
@@ -3139,15 +3139,88 @@
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="G15:G27"/>
-    <mergeCell ref="G28:G40"/>
-    <mergeCell ref="G41:G49"/>
-    <mergeCell ref="G50:G58"/>
-    <mergeCell ref="H2:H14"/>
-    <mergeCell ref="H15:H27"/>
-    <mergeCell ref="H28:H40"/>
-    <mergeCell ref="H41:H49"/>
-    <mergeCell ref="H50:H58"/>
+    <mergeCell ref="E124:E126"/>
+    <mergeCell ref="E59:E67"/>
+    <mergeCell ref="E68:E77"/>
+    <mergeCell ref="E78:E87"/>
+    <mergeCell ref="E88:E97"/>
+    <mergeCell ref="E98:E107"/>
+    <mergeCell ref="H108:H114"/>
+    <mergeCell ref="H115:H123"/>
+    <mergeCell ref="H124:H126"/>
+    <mergeCell ref="F98:F107"/>
+    <mergeCell ref="F108:F114"/>
+    <mergeCell ref="F115:F123"/>
+    <mergeCell ref="F124:F126"/>
+    <mergeCell ref="F88:F97"/>
+    <mergeCell ref="G108:G114"/>
+    <mergeCell ref="G115:G123"/>
+    <mergeCell ref="G124:G126"/>
+    <mergeCell ref="H98:H107"/>
+    <mergeCell ref="G59:G67"/>
+    <mergeCell ref="G68:G77"/>
+    <mergeCell ref="G78:G87"/>
+    <mergeCell ref="G88:G97"/>
+    <mergeCell ref="G98:G107"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="E2:E14"/>
+    <mergeCell ref="E15:E27"/>
+    <mergeCell ref="E28:E40"/>
+    <mergeCell ref="E41:E49"/>
+    <mergeCell ref="E50:E58"/>
+    <mergeCell ref="E108:E114"/>
+    <mergeCell ref="E115:E123"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="B90:B92"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="A124:A126"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A68:A77"/>
+    <mergeCell ref="A78:A87"/>
+    <mergeCell ref="A88:A97"/>
+    <mergeCell ref="A98:A107"/>
+    <mergeCell ref="A108:A114"/>
+    <mergeCell ref="A115:A123"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="F2:F14"/>
+    <mergeCell ref="F15:F27"/>
+    <mergeCell ref="F28:F40"/>
+    <mergeCell ref="F41:F49"/>
+    <mergeCell ref="F50:F58"/>
+    <mergeCell ref="F59:F67"/>
+    <mergeCell ref="F68:F77"/>
+    <mergeCell ref="F78:F87"/>
+    <mergeCell ref="H59:H67"/>
     <mergeCell ref="H68:H77"/>
     <mergeCell ref="H78:H87"/>
     <mergeCell ref="H88:H97"/>
@@ -3172,88 +3245,15 @@
     <mergeCell ref="B48:B49"/>
     <mergeCell ref="B50:B51"/>
     <mergeCell ref="G2:G14"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="F2:F14"/>
-    <mergeCell ref="F15:F27"/>
-    <mergeCell ref="F28:F40"/>
-    <mergeCell ref="F41:F49"/>
-    <mergeCell ref="F50:F58"/>
-    <mergeCell ref="F59:F67"/>
-    <mergeCell ref="F68:F77"/>
-    <mergeCell ref="F78:F87"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="B100:B102"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="A124:A126"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A68:A77"/>
-    <mergeCell ref="A78:A87"/>
-    <mergeCell ref="A88:A97"/>
-    <mergeCell ref="A98:A107"/>
-    <mergeCell ref="A108:A114"/>
-    <mergeCell ref="A115:A123"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="E2:E14"/>
-    <mergeCell ref="E15:E27"/>
-    <mergeCell ref="E28:E40"/>
-    <mergeCell ref="E41:E49"/>
-    <mergeCell ref="E50:E58"/>
-    <mergeCell ref="E108:E114"/>
-    <mergeCell ref="E115:E123"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="B90:B92"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="E124:E126"/>
-    <mergeCell ref="E59:E67"/>
-    <mergeCell ref="E68:E77"/>
-    <mergeCell ref="E78:E87"/>
-    <mergeCell ref="E88:E97"/>
-    <mergeCell ref="E98:E107"/>
-    <mergeCell ref="H108:H114"/>
-    <mergeCell ref="H115:H123"/>
-    <mergeCell ref="H124:H126"/>
-    <mergeCell ref="F98:F107"/>
-    <mergeCell ref="F108:F114"/>
-    <mergeCell ref="F115:F123"/>
-    <mergeCell ref="F124:F126"/>
-    <mergeCell ref="F88:F97"/>
-    <mergeCell ref="G108:G114"/>
-    <mergeCell ref="G115:G123"/>
-    <mergeCell ref="G124:G126"/>
-    <mergeCell ref="H98:H107"/>
-    <mergeCell ref="G59:G67"/>
-    <mergeCell ref="G68:G77"/>
-    <mergeCell ref="G78:G87"/>
-    <mergeCell ref="G88:G97"/>
-    <mergeCell ref="G98:G107"/>
-    <mergeCell ref="H59:H67"/>
+    <mergeCell ref="G15:G27"/>
+    <mergeCell ref="G28:G40"/>
+    <mergeCell ref="G41:G49"/>
+    <mergeCell ref="G50:G58"/>
+    <mergeCell ref="H2:H14"/>
+    <mergeCell ref="H15:H27"/>
+    <mergeCell ref="H28:H40"/>
+    <mergeCell ref="H41:H49"/>
+    <mergeCell ref="H50:H58"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F2:F14" r:id="rId1" display="https://i.ibb.co/9gqG1GB/small-car.png" xr:uid="{B995B7F3-A85A-4B03-A2F9-DC9D4020BC32}"/>
@@ -3269,20 +3269,19 @@
     <hyperlink ref="F108:F114" r:id="rId11" display="https://i.ibb.co/4gJQbPLL/bicycle.png" xr:uid="{740753F3-C7D8-4DC8-889B-0FE167C9A29B}"/>
     <hyperlink ref="F115:F123" r:id="rId12" display="https://i.ibb.co/spp9L9gD/scooter.png" xr:uid="{526C2024-79C9-413E-A754-295677212296}"/>
     <hyperlink ref="F124:F126" r:id="rId13" display="https://i.ibb.co/d4G1tdCg/skateboard.png" xr:uid="{A27F8D5C-1DEE-4297-B4A5-369245E871AE}"/>
-    <hyperlink ref="F41" r:id="rId14" xr:uid="{D7D88FD1-1043-4A4F-92D0-A0BF1FB9F7AC}"/>
-    <hyperlink ref="F59" r:id="rId15" xr:uid="{D2B7D22B-12F3-44E5-A701-30B0AFE236D3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8766d81-4db2-4748-b28e-60c4bf3d33a1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3464,19 +3463,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8766d81-4db2-4748-b28e-60c4bf3d33a1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92D2EAF5-82AE-4900-BA99-B75376D533AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B417868F-A7C7-4570-9A01-B42F5A0A293E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e8766d81-4db2-4748-b28e-60c4bf3d33a1"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3500,11 +3500,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B417868F-A7C7-4570-9A01-B42F5A0A293E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92D2EAF5-82AE-4900-BA99-B75376D533AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e8766d81-4db2-4748-b28e-60c4bf3d33a1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>